--- a/tabel penelitian skripsi.xlsx
+++ b/tabel penelitian skripsi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Miner</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Packet (bytes)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean publish </t>
+  </si>
+  <si>
+    <t>mean search</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,14 +163,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -169,17 +178,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +477,7 @@
   <dimension ref="A1:CT43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,82 +487,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="8">
+      <c r="B1" s="11"/>
+      <c r="C1" s="14">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15">
         <v>3</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="8">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="14">
         <v>4</v>
       </c>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="9">
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="15">
         <v>5</v>
       </c>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
       <c r="BO1" s="4"/>
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
@@ -583,10 +597,10 @@
       <c r="CT1" s="4"/>
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="12">
         <v>0.3</v>
       </c>
@@ -619,38 +633,38 @@
         <v>1</v>
       </c>
       <c r="R2" s="12"/>
-      <c r="S2" s="15">
+      <c r="S2" s="13">
         <v>0.3</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13">
         <v>0.4</v>
       </c>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13">
         <v>0.5</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13">
         <v>0.6</v>
       </c>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13">
         <v>0.7</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13">
         <v>0.8</v>
       </c>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13">
         <v>0.9</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15">
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13">
         <v>1</v>
       </c>
-      <c r="AH2" s="15"/>
+      <c r="AH2" s="13"/>
       <c r="AI2" s="12">
         <v>0.3</v>
       </c>
@@ -683,38 +697,38 @@
         <v>1</v>
       </c>
       <c r="AX2" s="12"/>
-      <c r="AY2" s="15">
+      <c r="AY2" s="13">
         <v>0.3</v>
       </c>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15">
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13">
         <v>0.4</v>
       </c>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15">
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13">
         <v>0.5</v>
       </c>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15">
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13">
         <v>0.6</v>
       </c>
-      <c r="BF2" s="15"/>
-      <c r="BG2" s="15">
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13">
         <v>0.7</v>
       </c>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="15">
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13">
         <v>0.8</v>
       </c>
-      <c r="BJ2" s="15"/>
-      <c r="BK2" s="15">
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13">
         <v>0.9</v>
       </c>
-      <c r="BL2" s="15"/>
-      <c r="BM2" s="15">
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13">
         <v>1</v>
       </c>
-      <c r="BN2" s="15"/>
+      <c r="BN2" s="13"/>
       <c r="BO2" s="6"/>
       <c r="BP2" s="6"/>
       <c r="BQ2" s="6"/>
@@ -749,200 +763,200 @@
       <c r="CT2" s="6"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="13">
-        <v>32</v>
-      </c>
-      <c r="D3" s="13">
-        <v>128</v>
-      </c>
-      <c r="E3" s="13">
-        <v>32</v>
-      </c>
-      <c r="F3" s="13">
-        <v>128</v>
-      </c>
-      <c r="G3" s="13">
-        <v>32</v>
-      </c>
-      <c r="H3" s="13">
-        <v>128</v>
-      </c>
-      <c r="I3" s="13">
-        <v>32</v>
-      </c>
-      <c r="J3" s="13">
-        <v>128</v>
-      </c>
-      <c r="K3" s="13">
-        <v>32</v>
-      </c>
-      <c r="L3" s="13">
-        <v>128</v>
-      </c>
-      <c r="M3" s="13">
-        <v>32</v>
-      </c>
-      <c r="N3" s="13">
-        <v>128</v>
-      </c>
-      <c r="O3" s="13">
-        <v>32</v>
-      </c>
-      <c r="P3" s="13">
-        <v>128</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>32</v>
-      </c>
-      <c r="R3" s="13">
-        <v>128</v>
-      </c>
-      <c r="S3" s="16">
-        <v>32</v>
-      </c>
-      <c r="T3" s="16">
-        <v>128</v>
-      </c>
-      <c r="U3" s="16">
-        <v>32</v>
-      </c>
-      <c r="V3" s="16">
-        <v>128</v>
-      </c>
-      <c r="W3" s="16">
-        <v>32</v>
-      </c>
-      <c r="X3" s="16">
-        <v>128</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>128</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>128</v>
-      </c>
-      <c r="AC3" s="16">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="16">
-        <v>128</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="16">
-        <v>128</v>
-      </c>
-      <c r="AG3" s="16">
-        <v>32</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>128</v>
-      </c>
-      <c r="AI3" s="13">
-        <v>32</v>
-      </c>
-      <c r="AJ3" s="13">
-        <v>128</v>
-      </c>
-      <c r="AK3" s="13">
-        <v>32</v>
-      </c>
-      <c r="AL3" s="13">
-        <v>128</v>
-      </c>
-      <c r="AM3" s="13">
-        <v>32</v>
-      </c>
-      <c r="AN3" s="13">
-        <v>128</v>
-      </c>
-      <c r="AO3" s="13">
-        <v>32</v>
-      </c>
-      <c r="AP3" s="13">
-        <v>128</v>
-      </c>
-      <c r="AQ3" s="13">
-        <v>32</v>
-      </c>
-      <c r="AR3" s="13">
-        <v>128</v>
-      </c>
-      <c r="AS3" s="13">
-        <v>32</v>
-      </c>
-      <c r="AT3" s="13">
-        <v>128</v>
-      </c>
-      <c r="AU3" s="13">
-        <v>32</v>
-      </c>
-      <c r="AV3" s="13">
-        <v>128</v>
-      </c>
-      <c r="AW3" s="13">
-        <v>32</v>
-      </c>
-      <c r="AX3" s="13">
-        <v>128</v>
-      </c>
-      <c r="AY3" s="16">
-        <v>32</v>
-      </c>
-      <c r="AZ3" s="16">
-        <v>128</v>
-      </c>
-      <c r="BA3" s="16">
-        <v>32</v>
-      </c>
-      <c r="BB3" s="16">
-        <v>128</v>
-      </c>
-      <c r="BC3" s="16">
-        <v>32</v>
-      </c>
-      <c r="BD3" s="16">
-        <v>128</v>
-      </c>
-      <c r="BE3" s="16">
-        <v>32</v>
-      </c>
-      <c r="BF3" s="16">
-        <v>128</v>
-      </c>
-      <c r="BG3" s="16">
-        <v>32</v>
-      </c>
-      <c r="BH3" s="16">
-        <v>128</v>
-      </c>
-      <c r="BI3" s="16">
-        <v>32</v>
-      </c>
-      <c r="BJ3" s="16">
-        <v>128</v>
-      </c>
-      <c r="BK3" s="16">
-        <v>32</v>
-      </c>
-      <c r="BL3" s="16">
-        <v>128</v>
-      </c>
-      <c r="BM3" s="16">
-        <v>32</v>
-      </c>
-      <c r="BN3" s="16">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9">
+        <v>128</v>
+      </c>
+      <c r="E3" s="9">
+        <v>32</v>
+      </c>
+      <c r="F3" s="9">
+        <v>128</v>
+      </c>
+      <c r="G3" s="9">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9">
+        <v>128</v>
+      </c>
+      <c r="I3" s="9">
+        <v>32</v>
+      </c>
+      <c r="J3" s="9">
+        <v>128</v>
+      </c>
+      <c r="K3" s="9">
+        <v>32</v>
+      </c>
+      <c r="L3" s="9">
+        <v>128</v>
+      </c>
+      <c r="M3" s="9">
+        <v>32</v>
+      </c>
+      <c r="N3" s="9">
+        <v>128</v>
+      </c>
+      <c r="O3" s="9">
+        <v>32</v>
+      </c>
+      <c r="P3" s="9">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>32</v>
+      </c>
+      <c r="R3" s="9">
+        <v>128</v>
+      </c>
+      <c r="S3" s="10">
+        <v>32</v>
+      </c>
+      <c r="T3" s="10">
+        <v>128</v>
+      </c>
+      <c r="U3" s="10">
+        <v>32</v>
+      </c>
+      <c r="V3" s="10">
+        <v>128</v>
+      </c>
+      <c r="W3" s="10">
+        <v>32</v>
+      </c>
+      <c r="X3" s="10">
+        <v>128</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>128</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>128</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>128</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>128</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>128</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>128</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>128</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>32</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>128</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>32</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>128</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>32</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>128</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>32</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>128</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>32</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>128</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>32</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>128</v>
+      </c>
+      <c r="AY3" s="10">
+        <v>32</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>128</v>
+      </c>
+      <c r="BA3" s="10">
+        <v>32</v>
+      </c>
+      <c r="BB3" s="10">
+        <v>128</v>
+      </c>
+      <c r="BC3" s="10">
+        <v>32</v>
+      </c>
+      <c r="BD3" s="10">
+        <v>128</v>
+      </c>
+      <c r="BE3" s="10">
+        <v>32</v>
+      </c>
+      <c r="BF3" s="10">
+        <v>128</v>
+      </c>
+      <c r="BG3" s="10">
+        <v>32</v>
+      </c>
+      <c r="BH3" s="10">
+        <v>128</v>
+      </c>
+      <c r="BI3" s="10">
+        <v>32</v>
+      </c>
+      <c r="BJ3" s="10">
+        <v>128</v>
+      </c>
+      <c r="BK3" s="10">
+        <v>32</v>
+      </c>
+      <c r="BL3" s="10">
+        <v>128</v>
+      </c>
+      <c r="BM3" s="10">
+        <v>32</v>
+      </c>
+      <c r="BN3" s="10">
         <v>128</v>
       </c>
       <c r="BO3" s="7"/>
@@ -979,76 +993,78 @@
       <c r="CT3" s="7"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
+      <c r="C4" s="17">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
       <c r="BO4" s="5"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="5"/>
@@ -1083,74 +1099,76 @@
       <c r="CT4" s="5"/>
     </row>
     <row r="5" spans="1:98" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17"/>
-      <c r="BB5" s="17"/>
-      <c r="BC5" s="17"/>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="17"/>
-      <c r="BG5" s="17"/>
-      <c r="BH5" s="17"/>
-      <c r="BI5" s="17"/>
-      <c r="BJ5" s="17"/>
-      <c r="BK5" s="17"/>
-      <c r="BL5" s="17"/>
-      <c r="BM5" s="17"/>
-      <c r="BN5" s="17"/>
+      <c r="C5" s="17">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
       <c r="BQ5" s="5"/>
@@ -1185,76 +1203,78 @@
       <c r="CT5" s="5"/>
     </row>
     <row r="6" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="17"/>
-      <c r="BB6" s="17"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="17"/>
-      <c r="BH6" s="17"/>
-      <c r="BI6" s="17"/>
-      <c r="BJ6" s="17"/>
-      <c r="BK6" s="17"/>
-      <c r="BL6" s="17"/>
-      <c r="BM6" s="17"/>
-      <c r="BN6" s="17"/>
+      <c r="C6" s="17">
+        <v>1.86</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
       <c r="BO6" s="5"/>
       <c r="BP6" s="5"/>
       <c r="BQ6" s="5"/>
@@ -1289,74 +1309,76 @@
       <c r="CT6" s="5"/>
     </row>
     <row r="7" spans="1:98" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17"/>
-      <c r="BK7" s="17"/>
-      <c r="BL7" s="17"/>
-      <c r="BM7" s="17"/>
-      <c r="BN7" s="17"/>
+      <c r="C7" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="18"/>
+      <c r="BM7" s="18"/>
+      <c r="BN7" s="18"/>
       <c r="BO7" s="5"/>
       <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
@@ -1466,122 +1488,430 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>10.81</v>
+      </c>
+      <c r="D12">
+        <v>10.97</v>
+      </c>
+      <c r="F12">
+        <v>2.14</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1.62</v>
+      </c>
+      <c r="D13" s="16">
+        <v>9.26</v>
+      </c>
+      <c r="F13">
+        <v>2.14</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>8.15</v>
+      </c>
+      <c r="D14" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="F14">
+        <v>1.5</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="16">
+        <v>6.08</v>
+      </c>
+      <c r="D15" s="16">
+        <v>10.43</v>
+      </c>
+      <c r="F15">
+        <v>1.79</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="D16" s="16">
+        <v>16.64</v>
+      </c>
+      <c r="F16">
+        <v>1.28</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1.52</v>
+      </c>
+      <c r="D17" s="16">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F17">
+        <v>1.95</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1.87</v>
+      </c>
+      <c r="D18" s="16">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="F18">
+        <v>1.85</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16">
+        <v>12.9</v>
+      </c>
+      <c r="D19" s="16">
+        <v>11.25</v>
+      </c>
+      <c r="F19">
+        <v>2.1</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="16">
+        <v>9.18</v>
+      </c>
+      <c r="D20" s="16">
+        <v>10.76</v>
+      </c>
+      <c r="F20">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16">
+        <v>9.26</v>
+      </c>
+      <c r="D21" s="16">
+        <v>11.48</v>
+      </c>
+      <c r="F21">
+        <v>1.63</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" s="16">
+        <v>9.07</v>
+      </c>
+      <c r="D22" s="16">
+        <v>11.12</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F12:F21)</f>
+        <v>1.8619999999999997</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(H12:H21)</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" s="16">
+        <v>15.6</v>
+      </c>
+      <c r="D23" s="16">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25" s="16">
+        <v>7.26</v>
+      </c>
+      <c r="D25" s="16">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26" s="16">
+        <v>14.77</v>
+      </c>
+      <c r="D26" s="16">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27" s="16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D27" s="16">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28" s="16">
+        <v>13.13</v>
+      </c>
+      <c r="D28" s="16">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29" s="16">
+        <v>12.76</v>
+      </c>
+      <c r="D29" s="16">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30" s="16">
+        <v>17.04</v>
+      </c>
+      <c r="D30" s="16">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31" s="16">
+        <v>7.79</v>
+      </c>
+      <c r="D31" s="16">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="C32" s="16">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="D32" s="16">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>22</v>
+      </c>
+      <c r="C33" s="16">
+        <v>15.71</v>
+      </c>
+      <c r="D33" s="16">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="D34" s="16">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35" s="16">
+        <v>8.65</v>
+      </c>
+      <c r="D35" s="16">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36" s="16">
+        <v>10.32</v>
+      </c>
+      <c r="D36" s="16">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>26</v>
+      </c>
+      <c r="C37" s="16">
+        <v>13.69</v>
+      </c>
+      <c r="D37" s="16">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38" s="16">
+        <v>3.68</v>
+      </c>
+      <c r="D38" s="16">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39" s="16">
+        <v>11.05</v>
+      </c>
+      <c r="D39" s="16">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>29</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.93</v>
+      </c>
+      <c r="D40" s="16">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41" s="16">
+        <v>9.77</v>
+      </c>
+      <c r="D41" s="16">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <f>AVERAGE(C12:C41)</f>
+        <v>9.5389999999999979</v>
+      </c>
+      <c r="D42">
+        <f>AVERAGE(D12:D41)</f>
+        <v>11.005666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S1:AH1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AI1:AX1"/>
     <mergeCell ref="AY1:BN1"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -1597,6 +1927,32 @@
     <mergeCell ref="BM2:BN2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="S1:AH1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AI1:AX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
